--- a/ETP Testing POC Plan_Luan.xlsx
+++ b/ETP Testing POC Plan_Luan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84B3394-17D3-453F-B1E8-7BF388933EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E271389-F86C-4C04-9418-39AEC9FA71C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POC Planning" sheetId="9" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <definedName name="vertex42_title" hidden="1">"Gantt Chart Template"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1024,7 +1035,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1212,6 +1223,70 @@
     <xf numFmtId="168" fontId="40" fillId="21" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="40" fillId="21" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="38" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="51" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="38" fillId="21" borderId="11" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="51" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="23" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="51" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="12" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="12" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="21" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="12" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="40" fillId="21" borderId="11" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1220,78 +1295,11 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="44" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="165" fontId="44" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="40" fillId="21" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="50" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="38" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="51" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="38" fillId="21" borderId="11" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="51" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="23" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="51" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="20" borderId="12" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="12" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="50" fillId="21" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="12" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="40" fillId="21" borderId="11" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -2074,29 +2082,29 @@
   </sheetPr>
   <dimension ref="B1:DM69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CP8" sqref="CP8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
-    <col min="3" max="3" width="50.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="55" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="50.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="55" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="1.109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.140625" style="1" customWidth="1"/>
     <col min="11" max="90" width="3" style="1" customWidth="1"/>
-    <col min="91" max="93" width="3.109375" style="1" customWidth="1"/>
-    <col min="94" max="16384" width="9.33203125" style="1"/>
+    <col min="91" max="93" width="3.140625" style="1" customWidth="1"/>
+    <col min="94" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:90" ht="16.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:90" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:90" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:90" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="56"/>
@@ -2189,15 +2197,15 @@
     </row>
     <row r="3" spans="2:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
       <c r="J3" s="3"/>
       <c r="K3" s="44"/>
       <c r="L3" s="45" t="s">
@@ -2273,26 +2281,26 @@
       <c r="BZ3" s="43"/>
       <c r="CA3" s="43"/>
       <c r="CB3" s="43"/>
-      <c r="CC3" s="89"/>
-      <c r="CD3" s="89"/>
-      <c r="CE3" s="89"/>
-      <c r="CF3" s="89"/>
-      <c r="CG3" s="89"/>
-      <c r="CH3" s="89"/>
-      <c r="CI3" s="89"/>
-      <c r="CJ3" s="89"/>
-      <c r="CK3" s="89"/>
-      <c r="CL3" s="89"/>
+      <c r="CC3" s="43"/>
+      <c r="CD3" s="43"/>
+      <c r="CE3" s="43"/>
+      <c r="CF3" s="43"/>
+      <c r="CG3" s="43"/>
+      <c r="CH3" s="43"/>
+      <c r="CI3" s="43"/>
+      <c r="CJ3" s="43"/>
+      <c r="CK3" s="43"/>
+      <c r="CL3" s="43"/>
     </row>
-    <row r="4" spans="2:90" ht="23.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:90" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
       <c r="J4" s="5"/>
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
@@ -2385,235 +2393,235 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="67">
+      <c r="K5" s="86">
         <f>CHOOSE(WEEKDAY(D6+(H6-1)*7),5,4,3,2,1,0,6)+D6+(H6-1)*7</f>
         <v>45051</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67">
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86">
         <f>K5+7</f>
         <v>45058</v>
       </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67">
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86">
         <f>P5+7</f>
         <v>45065</v>
       </c>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67">
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86">
         <f>U5+7</f>
         <v>45072</v>
       </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67">
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86">
         <f>Z5+7</f>
         <v>45079</v>
       </c>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67">
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86">
         <f>AE5+7</f>
         <v>45086</v>
       </c>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67">
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86">
         <f>AJ5+7</f>
         <v>45093</v>
       </c>
-      <c r="AP5" s="67"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="67"/>
-      <c r="AT5" s="67">
+      <c r="AP5" s="86"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="86"/>
+      <c r="AS5" s="86"/>
+      <c r="AT5" s="86">
         <f>AO5+7</f>
         <v>45100</v>
       </c>
-      <c r="AU5" s="67"/>
-      <c r="AV5" s="67"/>
-      <c r="AW5" s="67"/>
-      <c r="AX5" s="67"/>
-      <c r="AY5" s="67">
+      <c r="AU5" s="86"/>
+      <c r="AV5" s="86"/>
+      <c r="AW5" s="86"/>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="86">
         <f>AT5+7</f>
         <v>45107</v>
       </c>
-      <c r="AZ5" s="67"/>
-      <c r="BA5" s="67"/>
-      <c r="BB5" s="67"/>
-      <c r="BC5" s="67"/>
-      <c r="BD5" s="67">
+      <c r="AZ5" s="86"/>
+      <c r="BA5" s="86"/>
+      <c r="BB5" s="86"/>
+      <c r="BC5" s="86"/>
+      <c r="BD5" s="86">
         <f>AY5+7</f>
         <v>45114</v>
       </c>
-      <c r="BE5" s="67"/>
-      <c r="BF5" s="67"/>
-      <c r="BG5" s="67"/>
-      <c r="BH5" s="67"/>
-      <c r="BI5" s="67">
+      <c r="BE5" s="86"/>
+      <c r="BF5" s="86"/>
+      <c r="BG5" s="86"/>
+      <c r="BH5" s="86"/>
+      <c r="BI5" s="86">
         <f>BD5+7</f>
         <v>45121</v>
       </c>
-      <c r="BJ5" s="67"/>
-      <c r="BK5" s="67"/>
-      <c r="BL5" s="67"/>
-      <c r="BM5" s="67"/>
-      <c r="BN5" s="67">
+      <c r="BJ5" s="86"/>
+      <c r="BK5" s="86"/>
+      <c r="BL5" s="86"/>
+      <c r="BM5" s="86"/>
+      <c r="BN5" s="86">
         <f t="shared" ref="BN5" si="0">BI5+7</f>
         <v>45128</v>
       </c>
-      <c r="BO5" s="67"/>
-      <c r="BP5" s="67"/>
-      <c r="BQ5" s="67"/>
-      <c r="BR5" s="67"/>
-      <c r="BS5" s="67">
+      <c r="BO5" s="86"/>
+      <c r="BP5" s="86"/>
+      <c r="BQ5" s="86"/>
+      <c r="BR5" s="86"/>
+      <c r="BS5" s="86">
         <f t="shared" ref="BS5" si="1">BN5+7</f>
         <v>45135</v>
       </c>
-      <c r="BT5" s="67"/>
-      <c r="BU5" s="67"/>
-      <c r="BV5" s="67"/>
-      <c r="BW5" s="67"/>
-      <c r="BX5" s="67">
+      <c r="BT5" s="86"/>
+      <c r="BU5" s="86"/>
+      <c r="BV5" s="86"/>
+      <c r="BW5" s="86"/>
+      <c r="BX5" s="86">
         <f t="shared" ref="BX5" si="2">BS5+7</f>
         <v>45142</v>
       </c>
-      <c r="BY5" s="67"/>
-      <c r="BZ5" s="67"/>
-      <c r="CA5" s="67"/>
-      <c r="CB5" s="67"/>
-      <c r="CC5" s="67">
+      <c r="BY5" s="86"/>
+      <c r="BZ5" s="86"/>
+      <c r="CA5" s="86"/>
+      <c r="CB5" s="86"/>
+      <c r="CC5" s="86">
         <f t="shared" ref="CC5" si="3">BX5+7</f>
         <v>45149</v>
       </c>
-      <c r="CD5" s="67"/>
-      <c r="CE5" s="67"/>
-      <c r="CF5" s="67"/>
-      <c r="CG5" s="67"/>
-      <c r="CH5" s="67">
+      <c r="CD5" s="86"/>
+      <c r="CE5" s="86"/>
+      <c r="CF5" s="86"/>
+      <c r="CG5" s="86"/>
+      <c r="CH5" s="86">
         <f t="shared" ref="CH5" si="4">CC5+7</f>
         <v>45156</v>
       </c>
-      <c r="CI5" s="67"/>
-      <c r="CJ5" s="67"/>
-      <c r="CK5" s="67"/>
-      <c r="CL5" s="67"/>
+      <c r="CI5" s="86"/>
+      <c r="CJ5" s="86"/>
+      <c r="CK5" s="86"/>
+      <c r="CL5" s="86"/>
     </row>
     <row r="6" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="88">
         <v>45047</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="69" t="s">
+      <c r="E6" s="88"/>
+      <c r="F6" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="69"/>
+      <c r="G6" s="90"/>
       <c r="H6" s="35">
         <v>1</v>
       </c>
       <c r="I6" s="47"/>
       <c r="J6" s="23"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67"/>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
-      <c r="BQ6" s="67"/>
-      <c r="BR6" s="67"/>
-      <c r="BS6" s="67"/>
-      <c r="BT6" s="67"/>
-      <c r="BU6" s="67"/>
-      <c r="BV6" s="67"/>
-      <c r="BW6" s="67"/>
-      <c r="BX6" s="67"/>
-      <c r="BY6" s="67"/>
-      <c r="BZ6" s="67"/>
-      <c r="CA6" s="67"/>
-      <c r="CB6" s="67"/>
-      <c r="CC6" s="67"/>
-      <c r="CD6" s="67"/>
-      <c r="CE6" s="67"/>
-      <c r="CF6" s="67"/>
-      <c r="CG6" s="67"/>
-      <c r="CH6" s="67"/>
-      <c r="CI6" s="67"/>
-      <c r="CJ6" s="67"/>
-      <c r="CK6" s="67"/>
-      <c r="CL6" s="67"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="86"/>
+      <c r="AO6" s="86"/>
+      <c r="AP6" s="86"/>
+      <c r="AQ6" s="86"/>
+      <c r="AR6" s="86"/>
+      <c r="AS6" s="86"/>
+      <c r="AT6" s="86"/>
+      <c r="AU6" s="86"/>
+      <c r="AV6" s="86"/>
+      <c r="AW6" s="86"/>
+      <c r="AX6" s="86"/>
+      <c r="AY6" s="86"/>
+      <c r="AZ6" s="86"/>
+      <c r="BA6" s="86"/>
+      <c r="BB6" s="86"/>
+      <c r="BC6" s="86"/>
+      <c r="BD6" s="86"/>
+      <c r="BE6" s="86"/>
+      <c r="BF6" s="86"/>
+      <c r="BG6" s="86"/>
+      <c r="BH6" s="86"/>
+      <c r="BI6" s="86"/>
+      <c r="BJ6" s="86"/>
+      <c r="BK6" s="86"/>
+      <c r="BL6" s="86"/>
+      <c r="BM6" s="86"/>
+      <c r="BN6" s="86"/>
+      <c r="BO6" s="86"/>
+      <c r="BP6" s="86"/>
+      <c r="BQ6" s="86"/>
+      <c r="BR6" s="86"/>
+      <c r="BS6" s="86"/>
+      <c r="BT6" s="86"/>
+      <c r="BU6" s="86"/>
+      <c r="BV6" s="86"/>
+      <c r="BW6" s="86"/>
+      <c r="BX6" s="86"/>
+      <c r="BY6" s="86"/>
+      <c r="BZ6" s="86"/>
+      <c r="CA6" s="86"/>
+      <c r="CB6" s="86"/>
+      <c r="CC6" s="86"/>
+      <c r="CD6" s="86"/>
+      <c r="CE6" s="86"/>
+      <c r="CF6" s="86"/>
+      <c r="CG6" s="86"/>
+      <c r="CH6" s="86"/>
+      <c r="CI6" s="86"/>
+      <c r="CJ6" s="86"/>
+      <c r="CK6" s="86"/>
+      <c r="CL6" s="86"/>
     </row>
-    <row r="7" spans="2:90" ht="6.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:90" ht="6.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="13"/>
       <c r="D7" s="58"/>
@@ -2623,86 +2631,86 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
-      <c r="BQ7" s="67"/>
-      <c r="BR7" s="67"/>
-      <c r="BS7" s="67"/>
-      <c r="BT7" s="67"/>
-      <c r="BU7" s="67"/>
-      <c r="BV7" s="67"/>
-      <c r="BW7" s="67"/>
-      <c r="BX7" s="67"/>
-      <c r="BY7" s="67"/>
-      <c r="BZ7" s="67"/>
-      <c r="CA7" s="67"/>
-      <c r="CB7" s="67"/>
-      <c r="CC7" s="67"/>
-      <c r="CD7" s="67"/>
-      <c r="CE7" s="67"/>
-      <c r="CF7" s="67"/>
-      <c r="CG7" s="67"/>
-      <c r="CH7" s="67"/>
-      <c r="CI7" s="67"/>
-      <c r="CJ7" s="67"/>
-      <c r="CK7" s="67"/>
-      <c r="CL7" s="67"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="86"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="86"/>
+      <c r="AX7" s="86"/>
+      <c r="AY7" s="86"/>
+      <c r="AZ7" s="86"/>
+      <c r="BA7" s="86"/>
+      <c r="BB7" s="86"/>
+      <c r="BC7" s="86"/>
+      <c r="BD7" s="86"/>
+      <c r="BE7" s="86"/>
+      <c r="BF7" s="86"/>
+      <c r="BG7" s="86"/>
+      <c r="BH7" s="86"/>
+      <c r="BI7" s="86"/>
+      <c r="BJ7" s="86"/>
+      <c r="BK7" s="86"/>
+      <c r="BL7" s="86"/>
+      <c r="BM7" s="86"/>
+      <c r="BN7" s="86"/>
+      <c r="BO7" s="86"/>
+      <c r="BP7" s="86"/>
+      <c r="BQ7" s="86"/>
+      <c r="BR7" s="86"/>
+      <c r="BS7" s="86"/>
+      <c r="BT7" s="86"/>
+      <c r="BU7" s="86"/>
+      <c r="BV7" s="86"/>
+      <c r="BW7" s="86"/>
+      <c r="BX7" s="86"/>
+      <c r="BY7" s="86"/>
+      <c r="BZ7" s="86"/>
+      <c r="CA7" s="86"/>
+      <c r="CB7" s="86"/>
+      <c r="CC7" s="86"/>
+      <c r="CD7" s="86"/>
+      <c r="CE7" s="86"/>
+      <c r="CF7" s="86"/>
+      <c r="CG7" s="86"/>
+      <c r="CH7" s="86"/>
+      <c r="CI7" s="86"/>
+      <c r="CJ7" s="86"/>
+      <c r="CK7" s="86"/>
+      <c r="CL7" s="86"/>
     </row>
     <row r="8" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -3046,7 +3054,7 @@
         <v>45156</v>
       </c>
     </row>
-    <row r="9" spans="2:90" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:90" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
@@ -3468,7 +3476,7 @@
       <c r="CK10" s="26"/>
       <c r="CL10" s="26"/>
     </row>
-    <row r="11" spans="2:90" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:90" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="27" t="s">
         <v>34</v>
@@ -3489,7 +3497,7 @@
       <c r="H11" s="37"/>
       <c r="I11" s="41">
         <f>AVERAGE(I12:I25)</f>
-        <v>0.19642857142857142</v>
+        <v>0.43928571428571422</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="25"/>
@@ -3573,7 +3581,7 @@
       <c r="CK11" s="25"/>
       <c r="CL11" s="25"/>
     </row>
-    <row r="12" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
@@ -3675,7 +3683,7 @@
       <c r="CK12" s="8"/>
       <c r="CL12" s="8"/>
     </row>
-    <row r="13" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="7" t="s">
         <v>11</v>
@@ -3777,7 +3785,7 @@
       <c r="CK13" s="8"/>
       <c r="CL13" s="8"/>
     </row>
-    <row r="14" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="7" t="s">
         <v>12</v>
@@ -3879,7 +3887,7 @@
       <c r="CK14" s="8"/>
       <c r="CL14" s="8"/>
     </row>
-    <row r="15" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="7" t="s">
         <v>13</v>
@@ -3897,7 +3905,7 @@
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="42">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="8"/>
@@ -3981,7 +3989,7 @@
       <c r="CK15" s="8"/>
       <c r="CL15" s="8"/>
     </row>
-    <row r="16" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -3999,7 +4007,7 @@
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="42">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="8"/>
@@ -4083,7 +4091,7 @@
       <c r="CK16" s="8"/>
       <c r="CL16" s="8"/>
     </row>
-    <row r="17" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="7" t="s">
         <v>20</v>
@@ -4094,7 +4102,7 @@
       <c r="G17" s="64"/>
       <c r="H17" s="38"/>
       <c r="I17" s="42">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="8"/>
@@ -4178,7 +4186,7 @@
       <c r="CK17" s="8"/>
       <c r="CL17" s="8"/>
     </row>
-    <row r="18" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="7" t="s">
         <v>15</v>
@@ -4189,7 +4197,7 @@
       <c r="G18" s="64"/>
       <c r="H18" s="38"/>
       <c r="I18" s="42">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="8"/>
@@ -4273,7 +4281,7 @@
       <c r="CK18" s="8"/>
       <c r="CL18" s="8"/>
     </row>
-    <row r="19" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="7" t="s">
         <v>17</v>
@@ -4368,7 +4376,7 @@
       <c r="CK19" s="8"/>
       <c r="CL19" s="8"/>
     </row>
-    <row r="20" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="7" t="s">
         <v>16</v>
@@ -4379,7 +4387,7 @@
       <c r="G20" s="64"/>
       <c r="H20" s="38"/>
       <c r="I20" s="42">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="8"/>
@@ -4463,15 +4471,15 @@
       <c r="CK20" s="8"/>
       <c r="CL20" s="8"/>
     </row>
-    <row r="21" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="71"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="72"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="38"/>
       <c r="I21" s="42">
         <v>0</v>
@@ -4558,15 +4566,15 @@
       <c r="CK21" s="8"/>
       <c r="CL21" s="8"/>
     </row>
-    <row r="22" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="71"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="72"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="38"/>
       <c r="I22" s="42">
         <v>0</v>
@@ -4653,15 +4661,15 @@
       <c r="CK22" s="8"/>
       <c r="CL22" s="8"/>
     </row>
-    <row r="23" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="71"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="72"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="38"/>
       <c r="I23" s="42">
         <v>0</v>
@@ -4748,15 +4756,15 @@
       <c r="CK23" s="8"/>
       <c r="CL23" s="8"/>
     </row>
-    <row r="24" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="71"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="72"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="38"/>
       <c r="I24" s="42">
         <v>0</v>
@@ -4843,7 +4851,7 @@
       <c r="CK24" s="8"/>
       <c r="CL24" s="8"/>
     </row>
-    <row r="25" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="7" t="s">
         <v>21</v>
@@ -4938,7 +4946,7 @@
       <c r="CK25" s="8"/>
       <c r="CL25" s="8"/>
     </row>
-    <row r="26" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="27" t="s">
         <v>36</v>
@@ -5043,7 +5051,7 @@
       <c r="CK26" s="8"/>
       <c r="CL26" s="8"/>
     </row>
-    <row r="27" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="7" t="s">
         <v>10</v>
@@ -5145,7 +5153,7 @@
       <c r="CK27" s="8"/>
       <c r="CL27" s="8"/>
     </row>
-    <row r="28" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="7" t="s">
         <v>38</v>
@@ -5247,7 +5255,7 @@
       <c r="CK28" s="8"/>
       <c r="CL28" s="8"/>
     </row>
-    <row r="29" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="7" t="s">
         <v>39</v>
@@ -5349,7 +5357,7 @@
       <c r="CK29" s="8"/>
       <c r="CL29" s="8"/>
     </row>
-    <row r="30" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="7" t="s">
         <v>40</v>
@@ -5451,7 +5459,7 @@
       <c r="CK30" s="8"/>
       <c r="CL30" s="8"/>
     </row>
-    <row r="31" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="7" t="s">
         <v>28</v>
@@ -5549,7 +5557,7 @@
       <c r="CK31" s="8"/>
       <c r="CL31" s="8"/>
     </row>
-    <row r="32" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="7" t="s">
         <v>21</v>
@@ -5647,7 +5655,7 @@
       <c r="CK32" s="8"/>
       <c r="CL32" s="8"/>
     </row>
-    <row r="33" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="27" t="s">
         <v>35</v>
@@ -5752,7 +5760,7 @@
       <c r="CK33" s="8"/>
       <c r="CL33" s="8"/>
     </row>
-    <row r="34" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="7" t="s">
         <v>10</v>
@@ -5854,7 +5862,7 @@
       <c r="CK34" s="8"/>
       <c r="CL34" s="8"/>
     </row>
-    <row r="35" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="7" t="s">
         <v>46</v>
@@ -5949,7 +5957,7 @@
       <c r="CK35" s="8"/>
       <c r="CL35" s="8"/>
     </row>
-    <row r="36" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="7" t="s">
         <v>41</v>
@@ -6044,7 +6052,7 @@
       <c r="CK36" s="8"/>
       <c r="CL36" s="8"/>
     </row>
-    <row r="37" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="27" t="s">
         <v>22</v>
@@ -6149,7 +6157,7 @@
       <c r="CK37" s="8"/>
       <c r="CL37" s="8"/>
     </row>
-    <row r="38" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="7" t="s">
         <v>23</v>
@@ -6251,7 +6259,7 @@
       <c r="CK38" s="8"/>
       <c r="CL38" s="8"/>
     </row>
-    <row r="39" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="7" t="s">
         <v>24</v>
@@ -6353,7 +6361,7 @@
       <c r="CK39" s="8"/>
       <c r="CL39" s="8"/>
     </row>
-    <row r="40" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="7" t="s">
         <v>26</v>
@@ -6455,7 +6463,7 @@
       <c r="CK40" s="8"/>
       <c r="CL40" s="8"/>
     </row>
-    <row r="41" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="7" t="s">
         <v>25</v>
@@ -6550,7 +6558,7 @@
       <c r="CK41" s="8"/>
       <c r="CL41" s="8"/>
     </row>
-    <row r="42" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:90" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="27" t="s">
         <v>45</v>
@@ -6954,11 +6962,11 @@
       <c r="CL45" s="8"/>
     </row>
     <row r="46" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="78"/>
-      <c r="C46" s="85" t="s">
+      <c r="B46" s="73"/>
+      <c r="C46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="90"/>
+      <c r="D46" s="84"/>
       <c r="E46" s="24" t="str">
         <f>IF(MIN(E47:E49)&gt;0,MIN(E47:E49),"")</f>
         <v/>
@@ -6971,387 +6979,387 @@
         <f>IF(OR(E46="",F46=""),"",NETWORKDAYS(E46,F46)&amp; " day(s)")</f>
         <v/>
       </c>
-      <c r="H46" s="86"/>
+      <c r="H46" s="81"/>
       <c r="I46" s="41">
         <f>AVERAGE(I47:I49)</f>
         <v>0</v>
       </c>
-      <c r="J46" s="83"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="81"/>
-      <c r="V46" s="81"/>
-      <c r="W46" s="81"/>
-      <c r="X46" s="81"/>
-      <c r="Y46" s="81"/>
-      <c r="Z46" s="81"/>
-      <c r="AA46" s="81"/>
-      <c r="AB46" s="81"/>
-      <c r="AC46" s="81"/>
-      <c r="AD46" s="81"/>
-      <c r="AE46" s="81"/>
-      <c r="AF46" s="81"/>
-      <c r="AG46" s="81"/>
-      <c r="AH46" s="81"/>
-      <c r="AI46" s="81"/>
-      <c r="AJ46" s="81"/>
-      <c r="AK46" s="81"/>
-      <c r="AL46" s="81"/>
-      <c r="AM46" s="81"/>
-      <c r="AN46" s="81"/>
-      <c r="AO46" s="81"/>
-      <c r="AP46" s="81"/>
-      <c r="AQ46" s="81"/>
-      <c r="AR46" s="81"/>
-      <c r="AS46" s="81"/>
-      <c r="AT46" s="81"/>
-      <c r="AU46" s="81"/>
-      <c r="AV46" s="81"/>
-      <c r="AW46" s="81"/>
-      <c r="AX46" s="81"/>
-      <c r="AY46" s="81"/>
-      <c r="AZ46" s="81"/>
-      <c r="BA46" s="81"/>
-      <c r="BB46" s="81"/>
-      <c r="BC46" s="81"/>
-      <c r="BD46" s="81"/>
-      <c r="BE46" s="81"/>
-      <c r="BF46" s="81"/>
-      <c r="BG46" s="81"/>
-      <c r="BH46" s="81"/>
-      <c r="BI46" s="81"/>
-      <c r="BJ46" s="81"/>
-      <c r="BK46" s="81"/>
-      <c r="BL46" s="81"/>
-      <c r="BM46" s="81"/>
-      <c r="BN46" s="81"/>
-      <c r="BO46" s="81"/>
-      <c r="BP46" s="81"/>
-      <c r="BQ46" s="81"/>
-      <c r="BR46" s="81"/>
-      <c r="BS46" s="81"/>
-      <c r="BT46" s="81"/>
-      <c r="BU46" s="81"/>
-      <c r="BV46" s="81"/>
-      <c r="BW46" s="81"/>
-      <c r="BX46" s="81"/>
-      <c r="BY46" s="81"/>
-      <c r="BZ46" s="81"/>
-      <c r="CA46" s="81"/>
-      <c r="CB46" s="81"/>
-      <c r="CC46" s="81"/>
-      <c r="CD46" s="81"/>
-      <c r="CE46" s="81"/>
-      <c r="CF46" s="81"/>
-      <c r="CG46" s="81"/>
-      <c r="CH46" s="81"/>
-      <c r="CI46" s="81"/>
-      <c r="CJ46" s="81"/>
-      <c r="CK46" s="81"/>
-      <c r="CL46" s="81"/>
+      <c r="J46" s="78"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="76"/>
+      <c r="S46" s="76"/>
+      <c r="T46" s="76"/>
+      <c r="U46" s="76"/>
+      <c r="V46" s="76"/>
+      <c r="W46" s="76"/>
+      <c r="X46" s="76"/>
+      <c r="Y46" s="76"/>
+      <c r="Z46" s="76"/>
+      <c r="AA46" s="76"/>
+      <c r="AB46" s="76"/>
+      <c r="AC46" s="76"/>
+      <c r="AD46" s="76"/>
+      <c r="AE46" s="76"/>
+      <c r="AF46" s="76"/>
+      <c r="AG46" s="76"/>
+      <c r="AH46" s="76"/>
+      <c r="AI46" s="76"/>
+      <c r="AJ46" s="76"/>
+      <c r="AK46" s="76"/>
+      <c r="AL46" s="76"/>
+      <c r="AM46" s="76"/>
+      <c r="AN46" s="76"/>
+      <c r="AO46" s="76"/>
+      <c r="AP46" s="76"/>
+      <c r="AQ46" s="76"/>
+      <c r="AR46" s="76"/>
+      <c r="AS46" s="76"/>
+      <c r="AT46" s="76"/>
+      <c r="AU46" s="76"/>
+      <c r="AV46" s="76"/>
+      <c r="AW46" s="76"/>
+      <c r="AX46" s="76"/>
+      <c r="AY46" s="76"/>
+      <c r="AZ46" s="76"/>
+      <c r="BA46" s="76"/>
+      <c r="BB46" s="76"/>
+      <c r="BC46" s="76"/>
+      <c r="BD46" s="76"/>
+      <c r="BE46" s="76"/>
+      <c r="BF46" s="76"/>
+      <c r="BG46" s="76"/>
+      <c r="BH46" s="76"/>
+      <c r="BI46" s="76"/>
+      <c r="BJ46" s="76"/>
+      <c r="BK46" s="76"/>
+      <c r="BL46" s="76"/>
+      <c r="BM46" s="76"/>
+      <c r="BN46" s="76"/>
+      <c r="BO46" s="76"/>
+      <c r="BP46" s="76"/>
+      <c r="BQ46" s="76"/>
+      <c r="BR46" s="76"/>
+      <c r="BS46" s="76"/>
+      <c r="BT46" s="76"/>
+      <c r="BU46" s="76"/>
+      <c r="BV46" s="76"/>
+      <c r="BW46" s="76"/>
+      <c r="BX46" s="76"/>
+      <c r="BY46" s="76"/>
+      <c r="BZ46" s="76"/>
+      <c r="CA46" s="76"/>
+      <c r="CB46" s="76"/>
+      <c r="CC46" s="76"/>
+      <c r="CD46" s="76"/>
+      <c r="CE46" s="76"/>
+      <c r="CF46" s="76"/>
+      <c r="CG46" s="76"/>
+      <c r="CH46" s="76"/>
+      <c r="CI46" s="76"/>
+      <c r="CJ46" s="76"/>
+      <c r="CK46" s="76"/>
+      <c r="CL46" s="76"/>
     </row>
     <row r="47" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="78"/>
-      <c r="C47" s="80" t="s">
+      <c r="B47" s="73"/>
+      <c r="C47" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="88">
+      <c r="D47" s="76"/>
+      <c r="E47" s="74"/>
+      <c r="F47" s="74"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="82"/>
+      <c r="I47" s="83">
         <v>0</v>
       </c>
-      <c r="J47" s="83"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="81"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="81"/>
-      <c r="X47" s="81"/>
-      <c r="Y47" s="81"/>
-      <c r="Z47" s="81"/>
-      <c r="AA47" s="81"/>
-      <c r="AB47" s="81"/>
-      <c r="AC47" s="81"/>
-      <c r="AD47" s="81"/>
-      <c r="AE47" s="81"/>
-      <c r="AF47" s="81"/>
-      <c r="AG47" s="81"/>
-      <c r="AH47" s="81"/>
-      <c r="AI47" s="81"/>
-      <c r="AJ47" s="81"/>
-      <c r="AK47" s="81"/>
-      <c r="AL47" s="81"/>
-      <c r="AM47" s="81"/>
-      <c r="AN47" s="81"/>
-      <c r="AO47" s="81"/>
-      <c r="AP47" s="81"/>
-      <c r="AQ47" s="81"/>
-      <c r="AR47" s="81"/>
-      <c r="AS47" s="81"/>
-      <c r="AT47" s="81"/>
-      <c r="AU47" s="81"/>
-      <c r="AV47" s="81"/>
-      <c r="AW47" s="81"/>
-      <c r="AX47" s="81"/>
-      <c r="AY47" s="81"/>
-      <c r="AZ47" s="81"/>
-      <c r="BA47" s="81"/>
-      <c r="BB47" s="81"/>
-      <c r="BC47" s="81"/>
-      <c r="BD47" s="81"/>
-      <c r="BE47" s="81"/>
-      <c r="BF47" s="81"/>
-      <c r="BG47" s="81"/>
-      <c r="BH47" s="81"/>
-      <c r="BI47" s="81"/>
-      <c r="BJ47" s="81"/>
-      <c r="BK47" s="81"/>
-      <c r="BL47" s="81"/>
-      <c r="BM47" s="81"/>
-      <c r="BN47" s="81"/>
-      <c r="BO47" s="81"/>
-      <c r="BP47" s="81"/>
-      <c r="BQ47" s="81"/>
-      <c r="BR47" s="81"/>
-      <c r="BS47" s="81"/>
-      <c r="BT47" s="81"/>
-      <c r="BU47" s="81"/>
-      <c r="BV47" s="81"/>
-      <c r="BW47" s="81"/>
-      <c r="BX47" s="81"/>
-      <c r="BY47" s="81"/>
-      <c r="BZ47" s="81"/>
-      <c r="CA47" s="81"/>
-      <c r="CB47" s="81"/>
-      <c r="CC47" s="81"/>
-      <c r="CD47" s="81"/>
-      <c r="CE47" s="81"/>
-      <c r="CF47" s="81"/>
-      <c r="CG47" s="81"/>
-      <c r="CH47" s="81"/>
-      <c r="CI47" s="81"/>
-      <c r="CJ47" s="81"/>
-      <c r="CK47" s="81"/>
-      <c r="CL47" s="81"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="76"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="76"/>
+      <c r="S47" s="76"/>
+      <c r="T47" s="76"/>
+      <c r="U47" s="76"/>
+      <c r="V47" s="76"/>
+      <c r="W47" s="76"/>
+      <c r="X47" s="76"/>
+      <c r="Y47" s="76"/>
+      <c r="Z47" s="76"/>
+      <c r="AA47" s="76"/>
+      <c r="AB47" s="76"/>
+      <c r="AC47" s="76"/>
+      <c r="AD47" s="76"/>
+      <c r="AE47" s="76"/>
+      <c r="AF47" s="76"/>
+      <c r="AG47" s="76"/>
+      <c r="AH47" s="76"/>
+      <c r="AI47" s="76"/>
+      <c r="AJ47" s="76"/>
+      <c r="AK47" s="76"/>
+      <c r="AL47" s="76"/>
+      <c r="AM47" s="76"/>
+      <c r="AN47" s="76"/>
+      <c r="AO47" s="76"/>
+      <c r="AP47" s="76"/>
+      <c r="AQ47" s="76"/>
+      <c r="AR47" s="76"/>
+      <c r="AS47" s="76"/>
+      <c r="AT47" s="76"/>
+      <c r="AU47" s="76"/>
+      <c r="AV47" s="76"/>
+      <c r="AW47" s="76"/>
+      <c r="AX47" s="76"/>
+      <c r="AY47" s="76"/>
+      <c r="AZ47" s="76"/>
+      <c r="BA47" s="76"/>
+      <c r="BB47" s="76"/>
+      <c r="BC47" s="76"/>
+      <c r="BD47" s="76"/>
+      <c r="BE47" s="76"/>
+      <c r="BF47" s="76"/>
+      <c r="BG47" s="76"/>
+      <c r="BH47" s="76"/>
+      <c r="BI47" s="76"/>
+      <c r="BJ47" s="76"/>
+      <c r="BK47" s="76"/>
+      <c r="BL47" s="76"/>
+      <c r="BM47" s="76"/>
+      <c r="BN47" s="76"/>
+      <c r="BO47" s="76"/>
+      <c r="BP47" s="76"/>
+      <c r="BQ47" s="76"/>
+      <c r="BR47" s="76"/>
+      <c r="BS47" s="76"/>
+      <c r="BT47" s="76"/>
+      <c r="BU47" s="76"/>
+      <c r="BV47" s="76"/>
+      <c r="BW47" s="76"/>
+      <c r="BX47" s="76"/>
+      <c r="BY47" s="76"/>
+      <c r="BZ47" s="76"/>
+      <c r="CA47" s="76"/>
+      <c r="CB47" s="76"/>
+      <c r="CC47" s="76"/>
+      <c r="CD47" s="76"/>
+      <c r="CE47" s="76"/>
+      <c r="CF47" s="76"/>
+      <c r="CG47" s="76"/>
+      <c r="CH47" s="76"/>
+      <c r="CI47" s="76"/>
+      <c r="CJ47" s="76"/>
+      <c r="CK47" s="76"/>
+      <c r="CL47" s="76"/>
     </row>
     <row r="48" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="78"/>
-      <c r="C48" s="80" t="s">
+      <c r="B48" s="73"/>
+      <c r="C48" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="81"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="88">
+      <c r="D48" s="76"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="82"/>
+      <c r="I48" s="83">
         <v>0</v>
       </c>
-      <c r="J48" s="84"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82"/>
-      <c r="V48" s="82"/>
-      <c r="W48" s="82"/>
-      <c r="X48" s="82"/>
-      <c r="Y48" s="82"/>
-      <c r="Z48" s="82"/>
-      <c r="AA48" s="82"/>
-      <c r="AB48" s="82"/>
-      <c r="AC48" s="82"/>
-      <c r="AD48" s="82"/>
-      <c r="AE48" s="82"/>
-      <c r="AF48" s="82"/>
-      <c r="AG48" s="82"/>
-      <c r="AH48" s="82"/>
-      <c r="AI48" s="82"/>
-      <c r="AJ48" s="82"/>
-      <c r="AK48" s="82"/>
-      <c r="AL48" s="82"/>
-      <c r="AM48" s="82"/>
-      <c r="AN48" s="82"/>
-      <c r="AO48" s="82"/>
-      <c r="AP48" s="82"/>
-      <c r="AQ48" s="82"/>
-      <c r="AR48" s="82"/>
-      <c r="AS48" s="82"/>
-      <c r="AT48" s="82"/>
-      <c r="AU48" s="82"/>
-      <c r="AV48" s="82"/>
-      <c r="AW48" s="82"/>
-      <c r="AX48" s="82"/>
-      <c r="AY48" s="82"/>
-      <c r="AZ48" s="82"/>
-      <c r="BA48" s="82"/>
-      <c r="BB48" s="82"/>
-      <c r="BC48" s="82"/>
-      <c r="BD48" s="82"/>
-      <c r="BE48" s="82"/>
-      <c r="BF48" s="82"/>
-      <c r="BG48" s="82"/>
-      <c r="BH48" s="82"/>
-      <c r="BI48" s="82"/>
-      <c r="BJ48" s="82"/>
-      <c r="BK48" s="82"/>
-      <c r="BL48" s="82"/>
-      <c r="BM48" s="82"/>
-      <c r="BN48" s="82"/>
-      <c r="BO48" s="82"/>
-      <c r="BP48" s="82"/>
-      <c r="BQ48" s="82"/>
-      <c r="BR48" s="82"/>
-      <c r="BS48" s="82"/>
-      <c r="BT48" s="82"/>
-      <c r="BU48" s="82"/>
-      <c r="BV48" s="82"/>
-      <c r="BW48" s="82"/>
-      <c r="BX48" s="82"/>
-      <c r="BY48" s="82"/>
-      <c r="BZ48" s="82"/>
-      <c r="CA48" s="82"/>
-      <c r="CB48" s="82"/>
-      <c r="CC48" s="82"/>
-      <c r="CD48" s="82"/>
-      <c r="CE48" s="82"/>
-      <c r="CF48" s="82"/>
-      <c r="CG48" s="82"/>
-      <c r="CH48" s="82"/>
-      <c r="CI48" s="82"/>
-      <c r="CJ48" s="82"/>
-      <c r="CK48" s="82"/>
-      <c r="CL48" s="82"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
+      <c r="M48" s="77"/>
+      <c r="N48" s="77"/>
+      <c r="O48" s="77"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="77"/>
+      <c r="R48" s="77"/>
+      <c r="S48" s="77"/>
+      <c r="T48" s="77"/>
+      <c r="U48" s="77"/>
+      <c r="V48" s="77"/>
+      <c r="W48" s="77"/>
+      <c r="X48" s="77"/>
+      <c r="Y48" s="77"/>
+      <c r="Z48" s="77"/>
+      <c r="AA48" s="77"/>
+      <c r="AB48" s="77"/>
+      <c r="AC48" s="77"/>
+      <c r="AD48" s="77"/>
+      <c r="AE48" s="77"/>
+      <c r="AF48" s="77"/>
+      <c r="AG48" s="77"/>
+      <c r="AH48" s="77"/>
+      <c r="AI48" s="77"/>
+      <c r="AJ48" s="77"/>
+      <c r="AK48" s="77"/>
+      <c r="AL48" s="77"/>
+      <c r="AM48" s="77"/>
+      <c r="AN48" s="77"/>
+      <c r="AO48" s="77"/>
+      <c r="AP48" s="77"/>
+      <c r="AQ48" s="77"/>
+      <c r="AR48" s="77"/>
+      <c r="AS48" s="77"/>
+      <c r="AT48" s="77"/>
+      <c r="AU48" s="77"/>
+      <c r="AV48" s="77"/>
+      <c r="AW48" s="77"/>
+      <c r="AX48" s="77"/>
+      <c r="AY48" s="77"/>
+      <c r="AZ48" s="77"/>
+      <c r="BA48" s="77"/>
+      <c r="BB48" s="77"/>
+      <c r="BC48" s="77"/>
+      <c r="BD48" s="77"/>
+      <c r="BE48" s="77"/>
+      <c r="BF48" s="77"/>
+      <c r="BG48" s="77"/>
+      <c r="BH48" s="77"/>
+      <c r="BI48" s="77"/>
+      <c r="BJ48" s="77"/>
+      <c r="BK48" s="77"/>
+      <c r="BL48" s="77"/>
+      <c r="BM48" s="77"/>
+      <c r="BN48" s="77"/>
+      <c r="BO48" s="77"/>
+      <c r="BP48" s="77"/>
+      <c r="BQ48" s="77"/>
+      <c r="BR48" s="77"/>
+      <c r="BS48" s="77"/>
+      <c r="BT48" s="77"/>
+      <c r="BU48" s="77"/>
+      <c r="BV48" s="77"/>
+      <c r="BW48" s="77"/>
+      <c r="BX48" s="77"/>
+      <c r="BY48" s="77"/>
+      <c r="BZ48" s="77"/>
+      <c r="CA48" s="77"/>
+      <c r="CB48" s="77"/>
+      <c r="CC48" s="77"/>
+      <c r="CD48" s="77"/>
+      <c r="CE48" s="77"/>
+      <c r="CF48" s="77"/>
+      <c r="CG48" s="77"/>
+      <c r="CH48" s="77"/>
+      <c r="CI48" s="77"/>
+      <c r="CJ48" s="77"/>
+      <c r="CK48" s="77"/>
+      <c r="CL48" s="77"/>
     </row>
     <row r="49" spans="2:117" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="78"/>
-      <c r="C49" s="80" t="s">
+      <c r="B49" s="73"/>
+      <c r="C49" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="88">
+      <c r="D49" s="76"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="82"/>
+      <c r="I49" s="83">
         <v>0</v>
       </c>
-      <c r="J49" s="84"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="82"/>
-      <c r="AD49" s="82"/>
-      <c r="AE49" s="82"/>
-      <c r="AF49" s="82"/>
-      <c r="AG49" s="82"/>
-      <c r="AH49" s="82"/>
-      <c r="AI49" s="82"/>
-      <c r="AJ49" s="82"/>
-      <c r="AK49" s="82"/>
-      <c r="AL49" s="82"/>
-      <c r="AM49" s="82"/>
-      <c r="AN49" s="82"/>
-      <c r="AO49" s="82"/>
-      <c r="AP49" s="82"/>
-      <c r="AQ49" s="82"/>
-      <c r="AR49" s="82"/>
-      <c r="AS49" s="82"/>
-      <c r="AT49" s="82"/>
-      <c r="AU49" s="82"/>
-      <c r="AV49" s="82"/>
-      <c r="AW49" s="82"/>
-      <c r="AX49" s="82"/>
-      <c r="AY49" s="82"/>
-      <c r="AZ49" s="82"/>
-      <c r="BA49" s="82"/>
-      <c r="BB49" s="82"/>
-      <c r="BC49" s="82"/>
-      <c r="BD49" s="82"/>
-      <c r="BE49" s="82"/>
-      <c r="BF49" s="82"/>
-      <c r="BG49" s="82"/>
-      <c r="BH49" s="82"/>
-      <c r="BI49" s="82"/>
-      <c r="BJ49" s="82"/>
-      <c r="BK49" s="82"/>
-      <c r="BL49" s="82"/>
-      <c r="BM49" s="82"/>
-      <c r="BN49" s="82"/>
-      <c r="BO49" s="82"/>
-      <c r="BP49" s="82"/>
-      <c r="BQ49" s="82"/>
-      <c r="BR49" s="82"/>
-      <c r="BS49" s="82"/>
-      <c r="BT49" s="82"/>
-      <c r="BU49" s="82"/>
-      <c r="BV49" s="82"/>
-      <c r="BW49" s="82"/>
-      <c r="BX49" s="82"/>
-      <c r="BY49" s="82"/>
-      <c r="BZ49" s="82"/>
-      <c r="CA49" s="82"/>
-      <c r="CB49" s="82"/>
-      <c r="CC49" s="82"/>
-      <c r="CD49" s="82"/>
-      <c r="CE49" s="82"/>
-      <c r="CF49" s="82"/>
-      <c r="CG49" s="82"/>
-      <c r="CH49" s="82"/>
-      <c r="CI49" s="82"/>
-      <c r="CJ49" s="82"/>
-      <c r="CK49" s="82"/>
-      <c r="CL49" s="82"/>
+      <c r="J49" s="79"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
+      <c r="M49" s="77"/>
+      <c r="N49" s="77"/>
+      <c r="O49" s="77"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="77"/>
+      <c r="R49" s="77"/>
+      <c r="S49" s="77"/>
+      <c r="T49" s="77"/>
+      <c r="U49" s="77"/>
+      <c r="V49" s="77"/>
+      <c r="W49" s="77"/>
+      <c r="X49" s="77"/>
+      <c r="Y49" s="77"/>
+      <c r="Z49" s="77"/>
+      <c r="AA49" s="77"/>
+      <c r="AB49" s="77"/>
+      <c r="AC49" s="77"/>
+      <c r="AD49" s="77"/>
+      <c r="AE49" s="77"/>
+      <c r="AF49" s="77"/>
+      <c r="AG49" s="77"/>
+      <c r="AH49" s="77"/>
+      <c r="AI49" s="77"/>
+      <c r="AJ49" s="77"/>
+      <c r="AK49" s="77"/>
+      <c r="AL49" s="77"/>
+      <c r="AM49" s="77"/>
+      <c r="AN49" s="77"/>
+      <c r="AO49" s="77"/>
+      <c r="AP49" s="77"/>
+      <c r="AQ49" s="77"/>
+      <c r="AR49" s="77"/>
+      <c r="AS49" s="77"/>
+      <c r="AT49" s="77"/>
+      <c r="AU49" s="77"/>
+      <c r="AV49" s="77"/>
+      <c r="AW49" s="77"/>
+      <c r="AX49" s="77"/>
+      <c r="AY49" s="77"/>
+      <c r="AZ49" s="77"/>
+      <c r="BA49" s="77"/>
+      <c r="BB49" s="77"/>
+      <c r="BC49" s="77"/>
+      <c r="BD49" s="77"/>
+      <c r="BE49" s="77"/>
+      <c r="BF49" s="77"/>
+      <c r="BG49" s="77"/>
+      <c r="BH49" s="77"/>
+      <c r="BI49" s="77"/>
+      <c r="BJ49" s="77"/>
+      <c r="BK49" s="77"/>
+      <c r="BL49" s="77"/>
+      <c r="BM49" s="77"/>
+      <c r="BN49" s="77"/>
+      <c r="BO49" s="77"/>
+      <c r="BP49" s="77"/>
+      <c r="BQ49" s="77"/>
+      <c r="BR49" s="77"/>
+      <c r="BS49" s="77"/>
+      <c r="BT49" s="77"/>
+      <c r="BU49" s="77"/>
+      <c r="BV49" s="77"/>
+      <c r="BW49" s="77"/>
+      <c r="BX49" s="77"/>
+      <c r="BY49" s="77"/>
+      <c r="BZ49" s="77"/>
+      <c r="CA49" s="77"/>
+      <c r="CB49" s="77"/>
+      <c r="CC49" s="77"/>
+      <c r="CD49" s="77"/>
+      <c r="CE49" s="77"/>
+      <c r="CF49" s="77"/>
+      <c r="CG49" s="77"/>
+      <c r="CH49" s="77"/>
+      <c r="CI49" s="77"/>
+      <c r="CJ49" s="77"/>
+      <c r="CK49" s="77"/>
+      <c r="CL49" s="77"/>
     </row>
     <row r="50" spans="2:117" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="73"/>
+      <c r="C50" s="70"/>
+      <c r="D50" s="69"/>
+      <c r="E50" s="71"/>
+      <c r="F50" s="71"/>
+      <c r="G50" s="67"/>
+      <c r="H50" s="72"/>
+      <c r="I50" s="68"/>
       <c r="J50" s="19"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -7434,7 +7442,7 @@
       <c r="CK50" s="8"/>
       <c r="CL50" s="8"/>
     </row>
-    <row r="51" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B51" s="52"/>
       <c r="C51" s="53"/>
       <c r="D51" s="60"/>
@@ -7526,7 +7534,7 @@
       <c r="CL51" s="8"/>
       <c r="DM51" s="51"/>
     </row>
-    <row r="52" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B52" s="52"/>
       <c r="C52" s="53"/>
       <c r="D52" s="60"/>
@@ -7618,7 +7626,7 @@
       <c r="CL52" s="8"/>
       <c r="DM52" s="51"/>
     </row>
-    <row r="53" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B53" s="52"/>
       <c r="C53" s="53"/>
       <c r="D53" s="60"/>
@@ -7710,7 +7718,7 @@
       <c r="CL53" s="8"/>
       <c r="DM53" s="51"/>
     </row>
-    <row r="54" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B54" s="52"/>
       <c r="C54" s="53"/>
       <c r="D54" s="60"/>
@@ -7741,7 +7749,7 @@
       <c r="AC54" s="54"/>
       <c r="DM54" s="51"/>
     </row>
-    <row r="55" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B55" s="52"/>
       <c r="C55" s="53"/>
       <c r="D55" s="60"/>
@@ -7772,7 +7780,7 @@
       <c r="AC55" s="54"/>
       <c r="DM55" s="51"/>
     </row>
-    <row r="56" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B56" s="52"/>
       <c r="C56" s="53"/>
       <c r="D56" s="60"/>
@@ -7803,7 +7811,7 @@
       <c r="AC56" s="54"/>
       <c r="DM56" s="51"/>
     </row>
-    <row r="57" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B57" s="52"/>
       <c r="C57" s="53"/>
       <c r="D57" s="60"/>
@@ -7834,7 +7842,7 @@
       <c r="AC57" s="54"/>
       <c r="DM57" s="51"/>
     </row>
-    <row r="58" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B58" s="52"/>
       <c r="C58" s="53"/>
       <c r="D58" s="60"/>
@@ -7865,7 +7873,7 @@
       <c r="AC58" s="54"/>
       <c r="DM58" s="51"/>
     </row>
-    <row r="59" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B59" s="52"/>
       <c r="C59" s="53"/>
       <c r="D59" s="60"/>
@@ -7896,7 +7904,7 @@
       <c r="AC59" s="54"/>
       <c r="DM59" s="51"/>
     </row>
-    <row r="60" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B60" s="52"/>
       <c r="C60" s="53"/>
       <c r="D60" s="60"/>
@@ -7927,7 +7935,7 @@
       <c r="AC60" s="54"/>
       <c r="DM60" s="51"/>
     </row>
-    <row r="61" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B61" s="52"/>
       <c r="C61" s="53"/>
       <c r="D61" s="60"/>
@@ -7958,7 +7966,7 @@
       <c r="AC61" s="54"/>
       <c r="DM61" s="51"/>
     </row>
-    <row r="62" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B62" s="52"/>
       <c r="C62" s="53"/>
       <c r="D62" s="60"/>
@@ -7989,7 +7997,7 @@
       <c r="AC62" s="54"/>
       <c r="DM62" s="51"/>
     </row>
-    <row r="63" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B63" s="52"/>
       <c r="C63" s="53"/>
       <c r="D63" s="60"/>
@@ -8020,7 +8028,7 @@
       <c r="AC63" s="54"/>
       <c r="DM63" s="51"/>
     </row>
-    <row r="64" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B64" s="52"/>
       <c r="C64" s="53"/>
       <c r="D64" s="60"/>
@@ -8051,7 +8059,7 @@
       <c r="AC64" s="54"/>
       <c r="DM64" s="51"/>
     </row>
-    <row r="65" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B65" s="52"/>
       <c r="C65" s="53"/>
       <c r="D65" s="60"/>
@@ -8082,7 +8090,7 @@
       <c r="AC65" s="54"/>
       <c r="DM65" s="51"/>
     </row>
-    <row r="66" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B66" s="52"/>
       <c r="C66" s="53"/>
       <c r="D66" s="60"/>
@@ -8113,7 +8121,7 @@
       <c r="AC66" s="54"/>
       <c r="DM66" s="51"/>
     </row>
-    <row r="67" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B67" s="52"/>
       <c r="C67" s="53"/>
       <c r="D67" s="60"/>
@@ -8144,7 +8152,7 @@
       <c r="AC67" s="54"/>
       <c r="DM67" s="51"/>
     </row>
-    <row r="68" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:117" s="50" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B68" s="52"/>
       <c r="C68" s="53"/>
       <c r="D68" s="60"/>
@@ -8175,7 +8183,7 @@
       <c r="AC68" s="54"/>
       <c r="DM68" s="51"/>
     </row>
-    <row r="69" spans="2:117" s="50" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:117" s="50" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="52"/>
       <c r="C69" s="53"/>
       <c r="D69" s="60"/>
@@ -8209,6 +8217,17 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="AO5:AS7"/>
+    <mergeCell ref="BS5:BW7"/>
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="K5:O7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="P5:T7"/>
+    <mergeCell ref="U5:Y7"/>
+    <mergeCell ref="Z5:AD7"/>
+    <mergeCell ref="AE5:AI7"/>
+    <mergeCell ref="AJ5:AN7"/>
     <mergeCell ref="CC5:CG7"/>
     <mergeCell ref="CH5:CL7"/>
     <mergeCell ref="BN5:BR7"/>
@@ -8216,18 +8235,7 @@
     <mergeCell ref="BD5:BH7"/>
     <mergeCell ref="BI5:BM7"/>
     <mergeCell ref="BX5:CB7"/>
-    <mergeCell ref="P5:T7"/>
-    <mergeCell ref="U5:Y7"/>
-    <mergeCell ref="Z5:AD7"/>
-    <mergeCell ref="AE5:AI7"/>
-    <mergeCell ref="AJ5:AN7"/>
     <mergeCell ref="AY5:BC7"/>
-    <mergeCell ref="AO5:AS7"/>
-    <mergeCell ref="BS5:BW7"/>
-    <mergeCell ref="C3:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="K5:O7"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K8:CL8">

--- a/ETP Testing POC Plan_Luan.xlsx
+++ b/ETP Testing POC Plan_Luan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E271389-F86C-4C04-9418-39AEC9FA71C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2302E3E1-2F29-40CB-8C17-3F8714672470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2082,8 +2082,8 @@
   </sheetPr>
   <dimension ref="B1:DM69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3497,7 @@
       <c r="H11" s="37"/>
       <c r="I11" s="41">
         <f>AVERAGE(I12:I25)</f>
-        <v>0.43928571428571422</v>
+        <v>0.46785714285714286</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="25"/>
@@ -4102,7 +4102,7 @@
       <c r="G17" s="64"/>
       <c r="H17" s="38"/>
       <c r="I17" s="42">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="8"/>
@@ -4197,7 +4197,7 @@
       <c r="G18" s="64"/>
       <c r="H18" s="38"/>
       <c r="I18" s="42">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="8"/>
@@ -4387,7 +4387,7 @@
       <c r="G20" s="64"/>
       <c r="H20" s="38"/>
       <c r="I20" s="42">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="8"/>
@@ -8217,6 +8217,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="CC5:CG7"/>
+    <mergeCell ref="CH5:CL7"/>
+    <mergeCell ref="BN5:BR7"/>
+    <mergeCell ref="AT5:AX7"/>
+    <mergeCell ref="BD5:BH7"/>
+    <mergeCell ref="BI5:BM7"/>
+    <mergeCell ref="BX5:CB7"/>
+    <mergeCell ref="AY5:BC7"/>
     <mergeCell ref="AO5:AS7"/>
     <mergeCell ref="BS5:BW7"/>
     <mergeCell ref="C3:I4"/>
@@ -8228,14 +8236,6 @@
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="AJ5:AN7"/>
-    <mergeCell ref="CC5:CG7"/>
-    <mergeCell ref="CH5:CL7"/>
-    <mergeCell ref="BN5:BR7"/>
-    <mergeCell ref="AT5:AX7"/>
-    <mergeCell ref="BD5:BH7"/>
-    <mergeCell ref="BI5:BM7"/>
-    <mergeCell ref="BX5:CB7"/>
-    <mergeCell ref="AY5:BC7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K8:CL8">

--- a/ETP Testing POC Plan_Luan.xlsx
+++ b/ETP Testing POC Plan_Luan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2302E3E1-2F29-40CB-8C17-3F8714672470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC13F305-85AD-4D07-B8D4-FDB7F5C3DCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POC Planning" sheetId="9" r:id="rId1"/>
@@ -1721,7 +1721,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Mengdong"/>
@@ -2082,8 +2082,8 @@
   </sheetPr>
   <dimension ref="B1:DM69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3497,7 @@
       <c r="H11" s="37"/>
       <c r="I11" s="41">
         <f>AVERAGE(I12:I25)</f>
-        <v>0.46785714285714286</v>
+        <v>0.61428571428571421</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="25"/>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="H14" s="38"/>
       <c r="I14" s="42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="8"/>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="H15" s="38"/>
       <c r="I15" s="42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="8"/>
@@ -4007,7 +4007,7 @@
       </c>
       <c r="H16" s="38"/>
       <c r="I16" s="42">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="8"/>
@@ -4102,7 +4102,7 @@
       <c r="G17" s="64"/>
       <c r="H17" s="38"/>
       <c r="I17" s="42">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="8"/>
@@ -4197,7 +4197,7 @@
       <c r="G18" s="64"/>
       <c r="H18" s="38"/>
       <c r="I18" s="42">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="8"/>
@@ -4482,7 +4482,7 @@
       <c r="G21" s="67"/>
       <c r="H21" s="38"/>
       <c r="I21" s="42">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="8"/>
@@ -4672,7 +4672,7 @@
       <c r="G23" s="67"/>
       <c r="H23" s="38"/>
       <c r="I23" s="42">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="8"/>
@@ -4767,7 +4767,7 @@
       <c r="G24" s="67"/>
       <c r="H24" s="38"/>
       <c r="I24" s="42">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J24" s="18"/>
       <c r="K24" s="8"/>
@@ -8217,14 +8217,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="CC5:CG7"/>
-    <mergeCell ref="CH5:CL7"/>
-    <mergeCell ref="BN5:BR7"/>
-    <mergeCell ref="AT5:AX7"/>
-    <mergeCell ref="BD5:BH7"/>
-    <mergeCell ref="BI5:BM7"/>
-    <mergeCell ref="BX5:CB7"/>
-    <mergeCell ref="AY5:BC7"/>
     <mergeCell ref="AO5:AS7"/>
     <mergeCell ref="BS5:BW7"/>
     <mergeCell ref="C3:I4"/>
@@ -8236,6 +8228,14 @@
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="AJ5:AN7"/>
+    <mergeCell ref="CC5:CG7"/>
+    <mergeCell ref="CH5:CL7"/>
+    <mergeCell ref="BN5:BR7"/>
+    <mergeCell ref="AT5:AX7"/>
+    <mergeCell ref="BD5:BH7"/>
+    <mergeCell ref="BI5:BM7"/>
+    <mergeCell ref="BX5:CB7"/>
+    <mergeCell ref="AY5:BC7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K8:CL8">

--- a/ETP Testing POC Plan_Luan.xlsx
+++ b/ETP Testing POC Plan_Luan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC13F305-85AD-4D07-B8D4-FDB7F5C3DCCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05395C01-0A4E-49C4-8C24-CA1255E088CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POC Planning" sheetId="9" r:id="rId1"/>
@@ -1721,7 +1721,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Mengdong"/>
@@ -2082,8 +2082,8 @@
   </sheetPr>
   <dimension ref="B1:DM69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3497,7 @@
       <c r="H11" s="37"/>
       <c r="I11" s="41">
         <f>AVERAGE(I12:I25)</f>
-        <v>0.61428571428571421</v>
+        <v>0.63571428571428557</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="25"/>
@@ -4387,7 +4387,7 @@
       <c r="G20" s="64"/>
       <c r="H20" s="38"/>
       <c r="I20" s="42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="8"/>
@@ -4672,7 +4672,7 @@
       <c r="G23" s="67"/>
       <c r="H23" s="38"/>
       <c r="I23" s="42">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="8"/>
@@ -8217,6 +8217,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="CC5:CG7"/>
+    <mergeCell ref="CH5:CL7"/>
+    <mergeCell ref="BN5:BR7"/>
+    <mergeCell ref="AT5:AX7"/>
+    <mergeCell ref="BD5:BH7"/>
+    <mergeCell ref="BI5:BM7"/>
+    <mergeCell ref="BX5:CB7"/>
+    <mergeCell ref="AY5:BC7"/>
     <mergeCell ref="AO5:AS7"/>
     <mergeCell ref="BS5:BW7"/>
     <mergeCell ref="C3:I4"/>
@@ -8228,14 +8236,6 @@
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="AJ5:AN7"/>
-    <mergeCell ref="CC5:CG7"/>
-    <mergeCell ref="CH5:CL7"/>
-    <mergeCell ref="BN5:BR7"/>
-    <mergeCell ref="AT5:AX7"/>
-    <mergeCell ref="BD5:BH7"/>
-    <mergeCell ref="BI5:BM7"/>
-    <mergeCell ref="BX5:CB7"/>
-    <mergeCell ref="AY5:BC7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K8:CL8">
